--- a/xlsx/Powerset_intext.xlsx
+++ b/xlsx/Powerset_intext.xlsx
@@ -29,7 +29,7 @@
     <t>私营公司</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_Powerset</t>
+    <t>政策_政策_维基百科_Powerset</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%BC%97%E6%9C%97%E8%A5%BF%E6%96%AF%E7%A7%91</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E9%8D%B5%E5%AD%97</t>
   </si>
   <si>
-    <t>關鍵字</t>
+    <t>关键字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Xerox</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E7%BE%85%E5%A5%A7%E5%A4%9A%E7%A0%94%E7%A9%B6%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>帕羅奧多研究中心</t>
+    <t>帕罗奥多研究中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E7%99%BE%E7%A7%91</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%BB%9F%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>微軟歷史</t>
+    <t>微软历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E4%B8%9A%E5%AE%B6%E7%B2%BE%E7%A5%9E</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%A3%E4%BA%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>董事會</t>
+    <t>董事会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7W%C2%B7%E6%B1%A4%E6%99%AE%E6%A3%AE</t>
@@ -179,13 +179,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E8%92%82%E4%BA%9E%C2%B7%E7%B4%8D%E5%BE%B7%E6%8B%89</t>
   </si>
   <si>
-    <t>薩蒂亞·納德拉</t>
+    <t>萨蒂亚·纳德拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E5%A8%9C%C2%B7%E6%9D%9C%E4%BC%AF%E5%80%AB</t>
   </si>
   <si>
-    <t>迪娜·杜伯倫</t>
+    <t>迪娜·杜伯伦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E5%BE%B7%C2%B7%E9%9C%8D%E5%A4%AB%E6%9B%BC</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%B8%E5%A5%87</t>
   </si>
   <si>
-    <t>陸奇</t>
+    <t>陆奇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E9%87%8C%C2%B7%E8%BF%88%E5%B0%94%E6%A3%AE</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%BB%9F%E5%B7%A5%E7%A8%8B%E5%9C%98%E9%9A%8A</t>
   </si>
   <si>
-    <t>微軟工程團隊</t>
+    <t>微软工程团队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%BD%AF%E9%85%8D%E4%BB%B6</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%BB%9F%E7%A7%BB%E5%8B%95</t>
   </si>
   <si>
-    <t>微軟移動</t>
+    <t>微软移动</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Microsoft_Digital_Crimes_Unit</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%BB%9F%E7%A0%94%E7%A9%B6%E9%99%A2</t>
   </si>
   <si>
-    <t>微軟研究院</t>
+    <t>微软研究院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%BD%AF%E5%B7%A5%E4%BD%9C%E5%AE%A4</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/.NET%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>.NET基金會</t>
+    <t>.NET基金会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Outercurve_Foundation</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%BB%9F%E4%BD%9C%E6%A5%AD%E7%B3%BB%E7%B5%B1%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>微軟作業系統列表</t>
+    <t>微软作业系统列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Microsoft_Windows</t>
@@ -407,7 +407,7 @@
     <t>https://zh.wikipedia.org/wiki/Channel_9_(%E5%BE%AE%E8%BB%9F)</t>
   </si>
   <si>
-    <t>Channel 9 (微軟)</t>
+    <t>Channel 9 (微软)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CodePlex</t>
@@ -419,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E8%8B%B1</t>
   </si>
   <si>
-    <t>領英</t>
+    <t>领英</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Microsoft_Developer_Network</t>
@@ -539,25 +539,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8DWindows_XP%E7%9A%84%E6%89%B9%E8%A9%95</t>
   </si>
   <si>
-    <t>對Windows XP的批評</t>
+    <t>对Windows XP的批评</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8DWindows_Vista%E7%9A%84%E6%89%B9%E8%A9%95</t>
   </si>
   <si>
-    <t>對Windows Vista的批評</t>
+    <t>对Windows Vista的批评</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8DWindows_8%E7%9A%84%E6%89%B9%E8%A9%95</t>
   </si>
   <si>
-    <t>對Windows 8的批評</t>
+    <t>对Windows 8的批评</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Xbox_360%E6%95%85%E9%9A%9C%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>Xbox 360故障問題</t>
+    <t>Xbox 360故障问题</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Alcatel-Lucent_v._Microsoft_Corp.</t>
@@ -587,7 +587,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%BB%9F%E5%85%AC%E5%8F%B8%E8%A8%B4MikeRoweSoft</t>
   </si>
   <si>
-    <t>微軟公司訴MikeRoweSoft</t>
+    <t>微软公司诉MikeRoweSoft</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Microsoft_Corp._v._Shah</t>
@@ -599,7 +599,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A8%B4%E5%BE%AE%E8%BB%9F%E6%A1%88</t>
   </si>
   <si>
-    <t>美國訴微軟案</t>
+    <t>美国诉微软案</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_mergers_and_acquisitions_by_Microsoft</t>
